--- a/nova/logs/excel_logs/excel_pole.xlsx
+++ b/nova/logs/excel_logs/excel_pole.xlsx
@@ -1208,19 +1208,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>

--- a/nova/logs/excel_logs/excel_pole.xlsx
+++ b/nova/logs/excel_logs/excel_pole.xlsx
@@ -1205,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>13</v>
@@ -1214,13 +1214,13 @@
         <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>

--- a/nova/logs/excel_logs/excel_pole.xlsx
+++ b/nova/logs/excel_logs/excel_pole.xlsx
@@ -1205,25 +1205,25 @@
         <v>47</v>
       </c>
       <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>

--- a/nova/logs/excel_logs/excel_pole.xlsx
+++ b/nova/logs/excel_logs/excel_pole.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" windowHeight="10410" windowWidth="22155" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -205,13 +205,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:t>None</a:t>
             </a:r>
@@ -220,16 +220,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
               <a:solidFill>
@@ -271,10 +271,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -605,8 +605,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -618,9 +618,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
@@ -656,7 +656,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -673,16 +673,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -734,9 +734,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1041,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1205,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>17</v>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
         <v>14</v>
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -1265,70 +1265,70 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>27</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>25</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1348,6 +1348,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nova/logs/excel_logs/excel_pole.xlsx
+++ b/nova/logs/excel_logs/excel_pole.xlsx
@@ -1205,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>17</v>

--- a/nova/logs/excel_logs/excel_pole.xlsx
+++ b/nova/logs/excel_logs/excel_pole.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" windowHeight="10410" windowWidth="22155" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -205,13 +205,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:r>
               <a:t>None</a:t>
             </a:r>
@@ -220,16 +220,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
               <a:solidFill>
@@ -271,10 +271,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -605,8 +605,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:noFill/>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -618,9 +618,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
@@ -656,7 +656,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -673,16 +673,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -734,9 +734,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1041,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1217,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -1348,6 +1348,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nova/logs/excel_logs/excel_pole.xlsx
+++ b/nova/logs/excel_logs/excel_pole.xlsx
@@ -1205,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>17</v>
